--- a/ValueSet-ValueSet-R5-substance-weight-type-for-R4.xlsx
+++ b/ValueSet-ValueSet-R5-substance-weight-type-for-R4.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-ValueSet-R5-substance-weight-type-for-R4.xlsx
+++ b/ValueSet-ValueSet-R5-substance-weight-type-for-R4.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -95,8 +95,7 @@
 value set `http://hl7.org/fhir/ValueSet/substance-weight-type|5.0.0` as defined in FHIR R5
 in FHIR R4.
 The source value set is bound to the following FHIR R5 elements:
-* `SubstanceDefinition.molecularWeight.type` as Example
-* `SubstanceDefinition.structure.molecularWeight.type` as Example
+* `SubstanceDefinition.molecularWeight.type` as Example
 Across FHIR versions, the value set has been mapped as:
 * `http://hl7.org/fhir/ValueSet/substance-weight-type|5.0.0`
 * `http://hl7.org/fhir/ValueSet/substance-weight-type|4.3.0`
